--- a/Tables/tut_cond_survey.xlsx
+++ b/Tables/tut_cond_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F44B0E-4AFE-4F2C-A692-8BB53794536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB542A-2AC4-4F74-937A-47495AE0CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22740" yWindow="3270" windowWidth="21600" windowHeight="11175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
+    <workbookView xWindow="-17250" yWindow="-11835" windowWidth="14400" windowHeight="8175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
   </bookViews>
   <sheets>
     <sheet name="tut_cond_survey" sheetId="1" r:id="rId1"/>
@@ -246,64 +246,64 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>24.9***</v>
+            <v>10.3***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>20.9**</v>
+            <v>10.4***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>15.2</v>
+            <v>11.3***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>21.3*</v>
+            <v>12.0***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>18.4*</v>
+            <v>10.3***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>26.8***</v>
+            <v>11.2***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>18.4*</v>
+            <v>10.4***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>17.9*</v>
+            <v>10.9***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>14.9</v>
+            <v>11.4***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>16.3</v>
+            <v>10.8***</v>
           </cell>
           <cell r="L5" t="str">
-            <v>358.5***</v>
+            <v>189.1***</v>
           </cell>
           <cell r="M5" t="str">
-            <v>331.8**</v>
+            <v>185.6***</v>
           </cell>
           <cell r="N5" t="str">
-            <v>163.3</v>
+            <v>143.7**</v>
           </cell>
           <cell r="O5" t="str">
-            <v>266.9</v>
+            <v>183.9**</v>
           </cell>
           <cell r="P5" t="str">
-            <v>242.5*</v>
+            <v>153.9**</v>
           </cell>
           <cell r="Q5" t="str">
-            <v>331.3**</v>
+            <v>181.2***</v>
           </cell>
           <cell r="R5" t="str">
-            <v>225.9</v>
+            <v>140.5**</v>
           </cell>
           <cell r="S5" t="str">
-            <v>229.9</v>
+            <v>159.7**</v>
           </cell>
           <cell r="T5" t="str">
-            <v>120.9</v>
+            <v>137.2**</v>
           </cell>
           <cell r="U5" t="str">
-            <v>111.6</v>
+            <v>128.0*</v>
           </cell>
         </row>
         <row r="6">
@@ -311,64 +311,64 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(8.31)</v>
+            <v>(2.46)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(9.10)</v>
+            <v>(2.36)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(11.6)</v>
+            <v>(2.59)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(11.4)</v>
+            <v>(2.64)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(10.5)</v>
+            <v>(2.69)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(8.59)</v>
+            <v>(2.29)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(10.3)</v>
+            <v>(2.68)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(10.6)</v>
+            <v>(2.90)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(9.88)</v>
+            <v>(2.92)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(10.1)</v>
+            <v>(2.85)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>(107.7)</v>
+            <v>(50.9)</v>
           </cell>
           <cell r="M6" t="str">
-            <v>(130.3)</v>
+            <v>(58.0)</v>
           </cell>
           <cell r="N6" t="str">
-            <v>(150.0)</v>
+            <v>(67.6)</v>
           </cell>
           <cell r="O6" t="str">
-            <v>(173.2)</v>
+            <v>(81.9)</v>
           </cell>
           <cell r="P6" t="str">
-            <v>(143.8)</v>
+            <v>(69.8)</v>
           </cell>
           <cell r="Q6" t="str">
-            <v>(137.2)</v>
+            <v>(60.7)</v>
           </cell>
           <cell r="R6" t="str">
-            <v>(143.7)</v>
+            <v>(68.6)</v>
           </cell>
           <cell r="S6" t="str">
-            <v>(148.5)</v>
+            <v>(74.6)</v>
           </cell>
           <cell r="T6" t="str">
-            <v>(139.0)</v>
+            <v>(69.2)</v>
           </cell>
           <cell r="U6" t="str">
-            <v>(155.4)</v>
+            <v>(72.6)</v>
           </cell>
         </row>
         <row r="8">
@@ -712,22 +712,22 @@
       <selection activeCell="A2" sqref="A2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
         <f>[1]tut_cond_survey!A2</f>
         <v/>
@@ -806,98 +806,98 @@
         <v>(10)</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]tut_cond_survey!B5</f>
-        <v>24.9***</v>
+        <v>10.3***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]tut_cond_survey!C5</f>
-        <v>20.9**</v>
+        <v>10.4***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]tut_cond_survey!D5</f>
-        <v>15.2</v>
+        <v>11.3***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]tut_cond_survey!E5</f>
-        <v>21.3*</v>
+        <v>12.0***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]tut_cond_survey!F5</f>
-        <v>18.4*</v>
+        <v>10.3***</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>[1]tut_cond_survey!G5</f>
-        <v>26.8***</v>
+        <v>11.2***</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>[1]tut_cond_survey!H5</f>
-        <v>18.4*</v>
+        <v>10.4***</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>[1]tut_cond_survey!I5</f>
-        <v>17.9*</v>
+        <v>10.9***</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>[1]tut_cond_survey!J5</f>
-        <v>14.9</v>
+        <v>11.4***</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>[1]tut_cond_survey!K5</f>
-        <v>16.3</v>
+        <v>10.8***</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]tut_cond_survey!A6</f>
         <v/>
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]tut_cond_survey!B6</f>
-        <v>(8.31)</v>
+        <v>(2.46)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]tut_cond_survey!C6</f>
-        <v>(9.10)</v>
+        <v>(2.36)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]tut_cond_survey!D6</f>
-        <v>(11.6)</v>
+        <v>(2.59)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]tut_cond_survey!E6</f>
-        <v>(11.4)</v>
+        <v>(2.64)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]tut_cond_survey!F6</f>
-        <v>(10.5)</v>
+        <v>(2.69)</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>[1]tut_cond_survey!G6</f>
-        <v>(8.59)</v>
+        <v>(2.29)</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>[1]tut_cond_survey!H6</f>
-        <v>(10.3)</v>
+        <v>(2.68)</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>[1]tut_cond_survey!I6</f>
-        <v>(10.6)</v>
+        <v>(2.90)</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>[1]tut_cond_survey!J6</f>
-        <v>(9.88)</v>
+        <v>(2.92)</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>[1]tut_cond_survey!K6</f>
-        <v>(10.1)</v>
+        <v>(2.85)</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="str">
         <f>[1]tut_cond_survey!L2</f>
@@ -940,94 +940,94 @@
         <v>(20)</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>[1]tut_cond_survey!L5</f>
-        <v>358.5***</v>
+        <v>189.1***</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]tut_cond_survey!M5</f>
-        <v>331.8**</v>
+        <v>185.6***</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>[1]tut_cond_survey!N5</f>
-        <v>163.3</v>
+        <v>143.7**</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]tut_cond_survey!O5</f>
-        <v>266.9</v>
+        <v>183.9**</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]tut_cond_survey!P5</f>
-        <v>242.5*</v>
+        <v>153.9**</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>[1]tut_cond_survey!Q5</f>
-        <v>331.3**</v>
+        <v>181.2***</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>[1]tut_cond_survey!R5</f>
-        <v>225.9</v>
+        <v>140.5**</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>[1]tut_cond_survey!S5</f>
-        <v>229.9</v>
+        <v>159.7**</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>[1]tut_cond_survey!T5</f>
-        <v>120.9</v>
+        <v>137.2**</v>
       </c>
       <c r="K8" s="3" t="str">
         <f>[1]tut_cond_survey!U5</f>
-        <v>111.6</v>
+        <v>128.0*</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="str">
         <f>[1]tut_cond_survey!L6</f>
-        <v>(107.7)</v>
+        <v>(50.9)</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]tut_cond_survey!M6</f>
-        <v>(130.3)</v>
+        <v>(58.0)</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>[1]tut_cond_survey!N6</f>
-        <v>(150.0)</v>
+        <v>(67.6)</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]tut_cond_survey!O6</f>
-        <v>(173.2)</v>
+        <v>(81.9)</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]tut_cond_survey!P6</f>
-        <v>(143.8)</v>
+        <v>(69.8)</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>[1]tut_cond_survey!Q6</f>
-        <v>(137.2)</v>
+        <v>(60.7)</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]tut_cond_survey!R6</f>
-        <v>(143.7)</v>
+        <v>(68.6)</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]tut_cond_survey!S6</f>
-        <v>(148.5)</v>
+        <v>(74.6)</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>[1]tut_cond_survey!T6</f>
-        <v>(139.0)</v>
+        <v>(69.2)</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>[1]tut_cond_survey!U6</f>
-        <v>(155.4)</v>
+        <v>(72.6)</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/tut_cond_survey.xlsx
+++ b/Tables/tut_cond_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB542A-2AC4-4F74-937A-47495AE0CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A2DA-E0C3-4DA0-9991-185110ADEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17250" yWindow="-11835" windowWidth="14400" windowHeight="8175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
+    <workbookView xWindow="-17025" yWindow="-10530" windowWidth="14400" windowHeight="8175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
   </bookViews>
   <sheets>
     <sheet name="tut_cond_survey" sheetId="1" r:id="rId1"/>
@@ -258,25 +258,25 @@
             <v>12.0***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>10.3***</v>
+            <v>10.4***</v>
           </cell>
           <cell r="G5" t="str">
             <v>11.2***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>10.4***</v>
+            <v>10.5***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>10.9***</v>
+            <v>11.0***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>11.4***</v>
+            <v>11.5***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>10.8***</v>
+            <v>11.0***</v>
           </cell>
           <cell r="L5" t="str">
-            <v>189.1***</v>
+            <v>187.1***</v>
           </cell>
           <cell r="M5" t="str">
             <v>185.6***</v>
@@ -288,22 +288,22 @@
             <v>183.9**</v>
           </cell>
           <cell r="P5" t="str">
-            <v>153.9**</v>
+            <v>154.9**</v>
           </cell>
           <cell r="Q5" t="str">
             <v>181.2***</v>
           </cell>
           <cell r="R5" t="str">
-            <v>140.5**</v>
+            <v>141.4**</v>
           </cell>
           <cell r="S5" t="str">
-            <v>159.7**</v>
+            <v>160.7**</v>
           </cell>
           <cell r="T5" t="str">
-            <v>137.2**</v>
+            <v>138.0**</v>
           </cell>
           <cell r="U5" t="str">
-            <v>128.0*</v>
+            <v>129.0*</v>
           </cell>
         </row>
         <row r="6">
@@ -311,7 +311,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(2.46)</v>
+            <v>(2.44)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(2.36)</v>
@@ -323,25 +323,25 @@
             <v>(2.64)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(2.69)</v>
+            <v>(2.68)</v>
           </cell>
           <cell r="G6" t="str">
             <v>(2.29)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(2.68)</v>
+            <v>(2.67)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(2.90)</v>
+            <v>(2.89)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(2.92)</v>
+            <v>(2.91)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(2.85)</v>
+            <v>(2.84)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>(50.9)</v>
+            <v>(50.7)</v>
           </cell>
           <cell r="M6" t="str">
             <v>(58.0)</v>
@@ -359,16 +359,16 @@
             <v>(60.7)</v>
           </cell>
           <cell r="R6" t="str">
-            <v>(68.6)</v>
+            <v>(68.5)</v>
           </cell>
           <cell r="S6" t="str">
-            <v>(74.6)</v>
+            <v>(74.5)</v>
           </cell>
           <cell r="T6" t="str">
-            <v>(69.2)</v>
+            <v>(69.1)</v>
           </cell>
           <cell r="U6" t="str">
-            <v>(72.6)</v>
+            <v>(72.5)</v>
           </cell>
         </row>
         <row r="8">
@@ -808,7 +808,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]tut_cond_survey!B5</f>
@@ -828,7 +828,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]tut_cond_survey!F5</f>
-        <v>10.3***</v>
+        <v>10.4***</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>[1]tut_cond_survey!G5</f>
@@ -836,19 +836,19 @@
       </c>
       <c r="H4" s="3" t="str">
         <f>[1]tut_cond_survey!H5</f>
-        <v>10.4***</v>
+        <v>10.5***</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>[1]tut_cond_survey!I5</f>
-        <v>10.9***</v>
+        <v>11.0***</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>[1]tut_cond_survey!J5</f>
-        <v>11.4***</v>
+        <v>11.5***</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>[1]tut_cond_survey!K5</f>
-        <v>10.8***</v>
+        <v>11.0***</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]tut_cond_survey!B6</f>
-        <v>(2.46)</v>
+        <v>(2.44)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]tut_cond_survey!C6</f>
@@ -874,7 +874,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]tut_cond_survey!F6</f>
-        <v>(2.69)</v>
+        <v>(2.68)</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>[1]tut_cond_survey!G6</f>
@@ -882,19 +882,19 @@
       </c>
       <c r="H5" s="3" t="str">
         <f>[1]tut_cond_survey!H6</f>
-        <v>(2.68)</v>
+        <v>(2.67)</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>[1]tut_cond_survey!I6</f>
-        <v>(2.90)</v>
+        <v>(2.89)</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>[1]tut_cond_survey!J6</f>
-        <v>(2.92)</v>
+        <v>(2.91)</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>[1]tut_cond_survey!K6</f>
-        <v>(2.85)</v>
+        <v>(2.84)</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -942,11 +942,11 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>[1]tut_cond_survey!L5</f>
-        <v>189.1***</v>
+        <v>187.1***</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]tut_cond_survey!M5</f>
@@ -962,7 +962,7 @@
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]tut_cond_survey!P5</f>
-        <v>153.9**</v>
+        <v>154.9**</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>[1]tut_cond_survey!Q5</f>
@@ -970,25 +970,25 @@
       </c>
       <c r="H8" s="3" t="str">
         <f>[1]tut_cond_survey!R5</f>
-        <v>140.5**</v>
+        <v>141.4**</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>[1]tut_cond_survey!S5</f>
-        <v>159.7**</v>
+        <v>160.7**</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>[1]tut_cond_survey!T5</f>
-        <v>137.2**</v>
+        <v>138.0**</v>
       </c>
       <c r="K8" s="3" t="str">
         <f>[1]tut_cond_survey!U5</f>
-        <v>128.0*</v>
+        <v>129.0*</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="str">
         <f>[1]tut_cond_survey!L6</f>
-        <v>(50.9)</v>
+        <v>(50.7)</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]tut_cond_survey!M6</f>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]tut_cond_survey!R6</f>
-        <v>(68.6)</v>
+        <v>(68.5)</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]tut_cond_survey!S6</f>
-        <v>(74.6)</v>
+        <v>(74.5)</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>[1]tut_cond_survey!T6</f>
-        <v>(69.2)</v>
+        <v>(69.1)</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>[1]tut_cond_survey!U6</f>
-        <v>(72.6)</v>
+        <v>(72.5)</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/Tables/tut_cond_survey.xlsx
+++ b/Tables/tut_cond_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A2DA-E0C3-4DA0-9991-185110ADEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDADAB1-45F7-4F3C-9680-205CA2277CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17025" yWindow="-10530" windowWidth="14400" windowHeight="8175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
+    <workbookView xWindow="-19515" yWindow="-13020" windowWidth="21600" windowHeight="11235" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
   </bookViews>
   <sheets>
     <sheet name="tut_cond_survey" sheetId="1" r:id="rId1"/>
@@ -246,61 +246,61 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>10.3***</v>
+            <v>10.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>10.4***</v>
+            <v>10.6***</v>
           </cell>
           <cell r="D5" t="str">
+            <v>11.6***</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>12.4***</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>10.7***</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>11.4***</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>10.8***</v>
+          </cell>
+          <cell r="I5" t="str">
             <v>11.3***</v>
           </cell>
-          <cell r="E5" t="str">
-            <v>12.0***</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>10.4***</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>11.2***</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>10.5***</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>11.0***</v>
-          </cell>
           <cell r="J5" t="str">
-            <v>11.5***</v>
+            <v>11.7***</v>
           </cell>
           <cell r="K5" t="str">
             <v>11.0***</v>
           </cell>
           <cell r="L5" t="str">
-            <v>187.1***</v>
+            <v>191.5***</v>
           </cell>
           <cell r="M5" t="str">
-            <v>185.6***</v>
+            <v>187.6***</v>
           </cell>
           <cell r="N5" t="str">
-            <v>143.7**</v>
+            <v>147.0**</v>
           </cell>
           <cell r="O5" t="str">
-            <v>183.9**</v>
+            <v>187.6**</v>
           </cell>
           <cell r="P5" t="str">
-            <v>154.9**</v>
+            <v>157.6**</v>
           </cell>
           <cell r="Q5" t="str">
-            <v>181.2***</v>
+            <v>183.1***</v>
           </cell>
           <cell r="R5" t="str">
-            <v>141.4**</v>
+            <v>144.1**</v>
           </cell>
           <cell r="S5" t="str">
-            <v>160.7**</v>
+            <v>163.4**</v>
           </cell>
           <cell r="T5" t="str">
-            <v>138.0**</v>
+            <v>140.5**</v>
           </cell>
           <cell r="U5" t="str">
             <v>129.0*</v>
@@ -311,61 +311,61 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(2.44)</v>
+            <v>(2.47)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.36)</v>
+            <v>(2.39)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(2.59)</v>
+            <v>(2.64)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(2.64)</v>
+            <v>(2.70)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(2.68)</v>
+            <v>(2.72)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(2.29)</v>
+            <v>(2.32)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(2.67)</v>
+            <v>(2.71)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(2.89)</v>
+            <v>(2.94)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(2.91)</v>
+            <v>(2.95)</v>
           </cell>
           <cell r="K6" t="str">
             <v>(2.84)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>(50.7)</v>
+            <v>(50.8)</v>
           </cell>
           <cell r="M6" t="str">
-            <v>(58.0)</v>
+            <v>(58.1)</v>
           </cell>
           <cell r="N6" t="str">
-            <v>(67.6)</v>
+            <v>(67.8)</v>
           </cell>
           <cell r="O6" t="str">
-            <v>(81.9)</v>
+            <v>(82.0)</v>
           </cell>
           <cell r="P6" t="str">
-            <v>(69.8)</v>
+            <v>(69.9)</v>
           </cell>
           <cell r="Q6" t="str">
-            <v>(60.7)</v>
+            <v>(60.8)</v>
           </cell>
           <cell r="R6" t="str">
-            <v>(68.5)</v>
+            <v>(68.7)</v>
           </cell>
           <cell r="S6" t="str">
-            <v>(74.5)</v>
+            <v>(74.6)</v>
           </cell>
           <cell r="T6" t="str">
-            <v>(69.1)</v>
+            <v>(69.2)</v>
           </cell>
           <cell r="U6" t="str">
             <v>(72.5)</v>
@@ -812,39 +812,39 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]tut_cond_survey!B5</f>
-        <v>10.3***</v>
+        <v>10.6***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]tut_cond_survey!C5</f>
-        <v>10.4***</v>
+        <v>10.6***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]tut_cond_survey!D5</f>
-        <v>11.3***</v>
+        <v>11.6***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]tut_cond_survey!E5</f>
-        <v>12.0***</v>
+        <v>12.4***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]tut_cond_survey!F5</f>
-        <v>10.4***</v>
+        <v>10.7***</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>[1]tut_cond_survey!G5</f>
-        <v>11.2***</v>
+        <v>11.4***</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>[1]tut_cond_survey!H5</f>
-        <v>10.5***</v>
+        <v>10.8***</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>[1]tut_cond_survey!I5</f>
-        <v>11.0***</v>
+        <v>11.3***</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>[1]tut_cond_survey!J5</f>
-        <v>11.5***</v>
+        <v>11.7***</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>[1]tut_cond_survey!K5</f>
@@ -858,39 +858,39 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]tut_cond_survey!B6</f>
-        <v>(2.44)</v>
+        <v>(2.47)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]tut_cond_survey!C6</f>
-        <v>(2.36)</v>
+        <v>(2.39)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]tut_cond_survey!D6</f>
-        <v>(2.59)</v>
+        <v>(2.64)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]tut_cond_survey!E6</f>
-        <v>(2.64)</v>
+        <v>(2.70)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]tut_cond_survey!F6</f>
-        <v>(2.68)</v>
+        <v>(2.72)</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>[1]tut_cond_survey!G6</f>
-        <v>(2.29)</v>
+        <v>(2.32)</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>[1]tut_cond_survey!H6</f>
-        <v>(2.67)</v>
+        <v>(2.71)</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>[1]tut_cond_survey!I6</f>
-        <v>(2.89)</v>
+        <v>(2.94)</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>[1]tut_cond_survey!J6</f>
-        <v>(2.91)</v>
+        <v>(2.95)</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>[1]tut_cond_survey!K6</f>
@@ -946,39 +946,39 @@
       </c>
       <c r="B8" s="3" t="str">
         <f>[1]tut_cond_survey!L5</f>
-        <v>187.1***</v>
+        <v>191.5***</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]tut_cond_survey!M5</f>
-        <v>185.6***</v>
+        <v>187.6***</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>[1]tut_cond_survey!N5</f>
-        <v>143.7**</v>
+        <v>147.0**</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]tut_cond_survey!O5</f>
-        <v>183.9**</v>
+        <v>187.6**</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]tut_cond_survey!P5</f>
-        <v>154.9**</v>
+        <v>157.6**</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>[1]tut_cond_survey!Q5</f>
-        <v>181.2***</v>
+        <v>183.1***</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>[1]tut_cond_survey!R5</f>
-        <v>141.4**</v>
+        <v>144.1**</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>[1]tut_cond_survey!S5</f>
-        <v>160.7**</v>
+        <v>163.4**</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>[1]tut_cond_survey!T5</f>
-        <v>138.0**</v>
+        <v>140.5**</v>
       </c>
       <c r="K8" s="3" t="str">
         <f>[1]tut_cond_survey!U5</f>
@@ -988,39 +988,39 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="str">
         <f>[1]tut_cond_survey!L6</f>
-        <v>(50.7)</v>
+        <v>(50.8)</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]tut_cond_survey!M6</f>
-        <v>(58.0)</v>
+        <v>(58.1)</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>[1]tut_cond_survey!N6</f>
-        <v>(67.6)</v>
+        <v>(67.8)</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]tut_cond_survey!O6</f>
-        <v>(81.9)</v>
+        <v>(82.0)</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]tut_cond_survey!P6</f>
-        <v>(69.8)</v>
+        <v>(69.9)</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>[1]tut_cond_survey!Q6</f>
-        <v>(60.7)</v>
+        <v>(60.8)</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]tut_cond_survey!R6</f>
-        <v>(68.5)</v>
+        <v>(68.7)</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]tut_cond_survey!S6</f>
-        <v>(74.5)</v>
+        <v>(74.6)</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>[1]tut_cond_survey!T6</f>
-        <v>(69.1)</v>
+        <v>(69.2)</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>[1]tut_cond_survey!U6</f>

--- a/Tables/tut_cond_survey.xlsx
+++ b/Tables/tut_cond_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDADAB1-45F7-4F3C-9680-205CA2277CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E239063-452A-4100-9390-A0D329ECD851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19515" yWindow="-13020" windowWidth="21600" windowHeight="11235" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
+    <workbookView xWindow="1140" yWindow="-15060" windowWidth="21600" windowHeight="11175" xr2:uid="{E019ADB0-8FEE-4524-83FB-ADEB2CC5ACFC}"/>
   </bookViews>
   <sheets>
     <sheet name="tut_cond_survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Observations</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -149,6 +149,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C140A-AC5E-45E0-8CD9-CC807D41C331}">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +731,7 @@
     <col min="11" max="11" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -744,23 +748,8 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
         <f>[1]tut_cond_survey!A2</f>
         <v/>
@@ -785,28 +774,8 @@
         <f>[1]tut_cond_survey!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G3" s="6" t="str">
-        <f>[1]tut_cond_survey!G2</f>
-        <v>(6)</v>
-      </c>
-      <c r="H3" s="6" t="str">
-        <f>[1]tut_cond_survey!H2</f>
-        <v>(7)</v>
-      </c>
-      <c r="I3" s="6" t="str">
-        <f>[1]tut_cond_survey!I2</f>
-        <v>(8)</v>
-      </c>
-      <c r="J3" s="6" t="str">
-        <f>[1]tut_cond_survey!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="K3" s="6" t="str">
-        <f>[1]tut_cond_survey!K2</f>
-        <v>(10)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -830,28 +799,8 @@
         <f>[1]tut_cond_survey!F5</f>
         <v>10.7***</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>[1]tut_cond_survey!G5</f>
-        <v>11.4***</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f>[1]tut_cond_survey!H5</f>
-        <v>10.8***</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>[1]tut_cond_survey!I5</f>
-        <v>11.3***</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f>[1]tut_cond_survey!J5</f>
-        <v>11.7***</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>[1]tut_cond_survey!K5</f>
-        <v>11.0***</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]tut_cond_survey!A6</f>
         <v/>
@@ -876,203 +825,389 @@
         <f>[1]tut_cond_survey!F6</f>
         <v>(2.72)</v>
       </c>
-      <c r="G5" s="3" t="str">
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>[1]tut_cond_survey!L8</f>
+        <v>6304</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>[1]tut_cond_survey!M8</f>
+        <v>4465</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>[1]tut_cond_survey!N8</f>
+        <v>2948</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>[1]tut_cond_survey!O8</f>
+        <v>2613</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>[1]tut_cond_survey!P8</f>
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="str">
+        <f>[1]tut_cond_survey!G2</f>
+        <v>(6)</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>[1]tut_cond_survey!H2</f>
+        <v>(7)</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>[1]tut_cond_survey!I2</f>
+        <v>(8)</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>[1]tut_cond_survey!J2</f>
+        <v>(9)</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>[1]tut_cond_survey!K2</f>
+        <v>(10)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>[1]tut_cond_survey!G5</f>
+        <v>11.4***</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>[1]tut_cond_survey!H5</f>
+        <v>10.8***</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>[1]tut_cond_survey!I5</f>
+        <v>11.3***</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f>[1]tut_cond_survey!J5</f>
+        <v>11.7***</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>[1]tut_cond_survey!K5</f>
+        <v>11.0***</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="str">
         <f>[1]tut_cond_survey!G6</f>
         <v>(2.32)</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="C12" s="3" t="str">
         <f>[1]tut_cond_survey!H6</f>
         <v>(2.71)</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="D12" s="3" t="str">
         <f>[1]tut_cond_survey!I6</f>
         <v>(2.94)</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="E12" s="3" t="str">
         <f>[1]tut_cond_survey!J6</f>
         <v>(2.95)</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="F12" s="3" t="str">
         <f>[1]tut_cond_survey!K6</f>
         <v>(2.84)</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="str">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>[1]tut_cond_survey!Q8</f>
+        <v>4625</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>[1]tut_cond_survey!R8</f>
+        <v>3468</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>[1]tut_cond_survey!S8</f>
+        <v>3393</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f>[1]tut_cond_survey!T8</f>
+        <v>3677</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>[1]tut_cond_survey!U8</f>
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6" t="str">
         <f>[1]tut_cond_survey!L2</f>
         <v>(11)</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C17" s="6" t="str">
         <f>[1]tut_cond_survey!M2</f>
         <v>(12)</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D17" s="6" t="str">
         <f>[1]tut_cond_survey!N2</f>
         <v>(13)</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E17" s="6" t="str">
         <f>[1]tut_cond_survey!O2</f>
         <v>(14)</v>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F17" s="6" t="str">
         <f>[1]tut_cond_survey!P2</f>
         <v>(15)</v>
       </c>
-      <c r="G7" s="6" t="str">
+    </row>
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>[1]tut_cond_survey!L5</f>
+        <v>191.5***</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>[1]tut_cond_survey!M5</f>
+        <v>187.6***</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>[1]tut_cond_survey!N5</f>
+        <v>147.0**</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f>[1]tut_cond_survey!O5</f>
+        <v>187.6**</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>[1]tut_cond_survey!P5</f>
+        <v>157.6**</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="str">
+        <f>[1]tut_cond_survey!L6</f>
+        <v>(50.8)</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f>[1]tut_cond_survey!M6</f>
+        <v>(58.1)</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f>[1]tut_cond_survey!N6</f>
+        <v>(67.8)</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f>[1]tut_cond_survey!O6</f>
+        <v>(82.0)</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>[1]tut_cond_survey!P6</f>
+        <v>(69.9)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>[1]tut_cond_survey!L8</f>
+        <v>6304</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>[1]tut_cond_survey!M8</f>
+        <v>4465</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f>[1]tut_cond_survey!N8</f>
+        <v>2948</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f>[1]tut_cond_survey!O8</f>
+        <v>2613</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>[1]tut_cond_survey!P8</f>
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="str">
         <f>[1]tut_cond_survey!Q2</f>
         <v>(16)</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="C24" s="6" t="str">
         <f>[1]tut_cond_survey!R2</f>
         <v>(17)</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="D24" s="6" t="str">
         <f>[1]tut_cond_survey!S2</f>
         <v>(18)</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="E24" s="6" t="str">
         <f>[1]tut_cond_survey!T2</f>
         <v>(19)</v>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="F24" s="6" t="str">
         <f>[1]tut_cond_survey!U2</f>
         <v>(20)</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="25" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f>[1]tut_cond_survey!L5</f>
-        <v>191.5***</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f>[1]tut_cond_survey!M5</f>
-        <v>187.6***</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>[1]tut_cond_survey!N5</f>
-        <v>147.0**</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f>[1]tut_cond_survey!O5</f>
-        <v>187.6**</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>[1]tut_cond_survey!P5</f>
-        <v>157.6**</v>
-      </c>
-      <c r="G8" s="3" t="str">
+      <c r="B25" s="3" t="str">
         <f>[1]tut_cond_survey!Q5</f>
         <v>183.1***</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="C25" s="3" t="str">
         <f>[1]tut_cond_survey!R5</f>
         <v>144.1**</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="D25" s="3" t="str">
         <f>[1]tut_cond_survey!S5</f>
         <v>163.4**</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="E25" s="3" t="str">
         <f>[1]tut_cond_survey!T5</f>
         <v>140.5**</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="F25" s="3" t="str">
         <f>[1]tut_cond_survey!U5</f>
         <v>129.0*</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="str">
-        <f>[1]tut_cond_survey!L6</f>
-        <v>(50.8)</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>[1]tut_cond_survey!M6</f>
-        <v>(58.1)</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>[1]tut_cond_survey!N6</f>
-        <v>(67.8)</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f>[1]tut_cond_survey!O6</f>
-        <v>(82.0)</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>[1]tut_cond_survey!P6</f>
-        <v>(69.9)</v>
-      </c>
-      <c r="G9" s="3" t="str">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="str">
         <f>[1]tut_cond_survey!Q6</f>
         <v>(60.8)</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="C26" s="3" t="str">
         <f>[1]tut_cond_survey!R6</f>
         <v>(68.7)</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="D26" s="3" t="str">
         <f>[1]tut_cond_survey!S6</f>
         <v>(74.6)</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="E26" s="3" t="str">
         <f>[1]tut_cond_survey!T6</f>
         <v>(69.2)</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="F26" s="3" t="str">
         <f>[1]tut_cond_survey!U6</f>
         <v>(72.5)</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="str">
-        <f>[1]tut_cond_survey!L8</f>
-        <v>6304</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f>[1]tut_cond_survey!M8</f>
-        <v>4465</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f>[1]tut_cond_survey!N8</f>
-        <v>2948</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f>[1]tut_cond_survey!O8</f>
-        <v>2613</v>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f>[1]tut_cond_survey!P8</f>
-        <v>3433</v>
-      </c>
-      <c r="G11" s="6" t="str">
+      <c r="B28" s="6" t="str">
         <f>[1]tut_cond_survey!Q8</f>
         <v>4625</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="C28" s="6" t="str">
         <f>[1]tut_cond_survey!R8</f>
         <v>3468</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="D28" s="6" t="str">
         <f>[1]tut_cond_survey!S8</f>
         <v>3393</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="E28" s="6" t="str">
         <f>[1]tut_cond_survey!T8</f>
         <v>3677</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="F28" s="6" t="str">
         <f>[1]tut_cond_survey!U8</f>
         <v>3352</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
